--- a/Data/g13.9a.xlsx
+++ b/Data/g13.9a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
         </is>
       </c>
     </row>
@@ -375,8 +385,18 @@
           <t>Tocantins</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>0.1091740197455928</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -385,8 +405,18 @@
           <t>Amazonas</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>0.1040125770870062</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -395,8 +425,18 @@
           <t>Maranhão</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>0.100742843395387</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -405,8 +445,18 @@
           <t>Roraima</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>0.09273852805345384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -415,8 +465,18 @@
           <t>Pernambuco</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>0.09029233340261023</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -425,8 +485,18 @@
           <t>Alagoas</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>0.08607123351393331</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -435,8 +505,18 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>0.0710714812568638</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13º</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -445,7 +525,12 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C9">
         <v>0.07918199678812821</v>
       </c>
     </row>
@@ -455,7 +540,12 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Variação 2021/2020</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>0.05391191953244578</v>
       </c>
     </row>

--- a/Data/g13.9a.xlsx
+++ b/Data/g13.9a.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.1091740197455928</v>
+        <v>10.91740197455928</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.1040125770870062</v>
+        <v>10.40125770870062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.100742843395387</v>
+        <v>10.0742843395387</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.09273852805345384</v>
+        <v>9.273852805345385</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.09029233340261023</v>
+        <v>9.029233340261023</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.08607123351393331</v>
+        <v>8.60712335139333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.0710714812568638</v>
+        <v>7.10714812568638</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.07918199678812821</v>
+        <v>7.918199678812821</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.05391191953244578</v>
+        <v>5.391191953244578</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g13.9a.xlsx
+++ b/Data/g13.9a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,16 +382,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C2">
-        <v>10.91740197455928</v>
+        <v>25.87011789417062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -402,16 +402,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C3">
-        <v>10.40125770870062</v>
+        <v>15.2625061432311</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,16 +422,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C4">
-        <v>10.0742843395387</v>
+        <v>13.46567778129448</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -442,16 +442,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C5">
-        <v>9.273852805345385</v>
+        <v>13.3133806028382</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -462,16 +462,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C6">
-        <v>9.029233340261023</v>
+        <v>12.18552997886027</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -482,16 +482,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alagoas</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C7">
-        <v>8.60712335139333</v>
+        <v>11.60052210713454</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -507,15 +507,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C8">
-        <v>7.10714812568638</v>
+        <v>6.392991047517027</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13º</t>
+          <t>23º</t>
         </is>
       </c>
     </row>
@@ -527,26 +527,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Variação 2021/2020</t>
+          <t>Variação 2022/2021</t>
         </is>
       </c>
       <c r="C9">
-        <v>7.918199678812821</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Variação 2021/2020</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>5.391191953244578</v>
+        <v>8.261124244957617</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g13.9a.xlsx
+++ b/Data/g13.9a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,6 +534,21 @@
         <v>8.261124244957617</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Variação 2022/2021</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>8.335906243343905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/g13.9a.xlsx
+++ b/Data/g13.9a.xlsx
@@ -382,16 +382,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rondônia</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C2">
-        <v>25.87011789417062</v>
+        <v>22.01060354937823</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -402,16 +402,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C3">
-        <v>15.2625061432311</v>
+        <v>17.1014622367303</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,16 +422,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C4">
-        <v>13.46567778129448</v>
+        <v>14.76341704251287</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -442,16 +442,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C5">
-        <v>13.3133806028382</v>
+        <v>13.26378113223738</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -462,16 +462,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C6">
-        <v>12.18552997886027</v>
+        <v>11.47959452658822</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -482,16 +482,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C7">
-        <v>11.60052210713454</v>
+        <v>11.41224342862286</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -507,15 +507,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C8">
-        <v>6.392991047517027</v>
+        <v>8.383137353614533</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23º</t>
+          <t>7º</t>
         </is>
       </c>
     </row>
@@ -527,11 +527,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C9">
-        <v>8.261124244957617</v>
+        <v>5.617270641488692</v>
       </c>
     </row>
     <row r="10">
@@ -542,11 +542,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Variação 2022/2021</t>
+          <t>Variação 2023/2022</t>
         </is>
       </c>
       <c r="C10">
-        <v>8.335906243343905</v>
+        <v>3.628508523747587</v>
       </c>
     </row>
   </sheetData>
